--- a/Tables/Sources/gameplay/Task/MainTask.xlsx
+++ b/Tables/Sources/gameplay/Task/MainTask.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>任务ID</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>Build a Warship</t>
+    <t>Build a Warship1</t>
   </si>
   <si>
     <t>Diamonds|20</t>
@@ -67,100 +67,199 @@
     <t>Main_BuildWarshipRoom|1</t>
   </si>
   <si>
+    <t>Build a Warship2</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|2</t>
   </si>
   <si>
+    <t>Build a Warship3</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|3</t>
   </si>
   <si>
+    <t>Build a Warship4</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|4</t>
   </si>
   <si>
+    <t>Build a Warship5</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|5</t>
   </si>
   <si>
+    <t>Build a Warship6</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|6</t>
   </si>
   <si>
+    <t>Build a Warship7</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|7</t>
   </si>
   <si>
+    <t>Build a Warship8</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|8</t>
   </si>
   <si>
+    <t>Build a Warship9</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|9</t>
   </si>
   <si>
+    <t>Build a Warship10</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|10</t>
   </si>
   <si>
+    <t>Build a Warship11</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|11</t>
   </si>
   <si>
+    <t>Build a Warship12</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|12</t>
   </si>
   <si>
+    <t>Build a Warship13</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|13</t>
   </si>
   <si>
+    <t>Build a Warship14</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|14</t>
   </si>
   <si>
+    <t>Build a Warship15</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|15</t>
   </si>
   <si>
+    <t>Build a Warship16</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|16</t>
   </si>
   <si>
+    <t>Build a Warship17</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|17</t>
   </si>
   <si>
+    <t>Build a Warship18</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|18</t>
   </si>
   <si>
+    <t>Build a Warship19</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|19</t>
   </si>
   <si>
+    <t>Build a Warship20</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|20</t>
   </si>
   <si>
+    <t>Build a Warship21</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|21</t>
   </si>
   <si>
+    <t>Build a Warship22</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|22</t>
   </si>
   <si>
+    <t>Build a Warship23</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|23</t>
   </si>
   <si>
+    <t>Build a Warship24</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|24</t>
   </si>
   <si>
+    <t>Build a Warship25</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|25</t>
   </si>
   <si>
+    <t>Build a Warship26</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|26</t>
   </si>
   <si>
+    <t>Build a Warship27</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|27</t>
   </si>
   <si>
+    <t>Build a Warship28</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|28</t>
   </si>
   <si>
+    <t>Build a Warship29</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|29</t>
   </si>
   <si>
+    <t>Build a Warship30</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|30</t>
   </si>
   <si>
+    <t>Build a Warship31</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|31</t>
   </si>
   <si>
+    <t>Build a Warship32</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|32</t>
   </si>
   <si>
+    <t>Build a Warship33</t>
+  </si>
+  <si>
     <t>Main_BuildWarshipRoom|33</t>
+  </si>
+  <si>
+    <t>Build a Warship34</t>
   </si>
   <si>
     <t>Main_BuildWarshipRoom|34</t>
@@ -171,10 +270,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -193,7 +292,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,8 +389,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,77 +412,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,35 +428,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -351,25 +450,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,157 +630,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,17 +659,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,15 +679,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,154 +741,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,9 +1241,9 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="12.4" outlineLevelCol="4"/>
@@ -1253,13 +1352,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2">
         <v>3</v>
@@ -1270,13 +1369,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1287,13 +1386,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1304,13 +1403,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2">
         <v>3</v>
@@ -1321,13 +1420,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -1338,13 +1437,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -1355,13 +1454,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -1372,13 +1471,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2">
         <v>4</v>
@@ -1389,13 +1488,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -1406,13 +1505,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -1423,13 +1522,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2">
         <v>12</v>
@@ -1440,13 +1539,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2">
         <v>3</v>
@@ -1457,13 +1556,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -1474,13 +1573,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2">
         <v>5</v>
@@ -1491,13 +1590,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -1508,13 +1607,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -1525,13 +1624,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -1542,13 +1641,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2">
         <v>20</v>
@@ -1559,13 +1658,13 @@
         <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2">
         <v>4</v>
@@ -1576,13 +1675,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -1593,13 +1692,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -1610,13 +1709,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
@@ -1627,13 +1726,13 @@
         <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E28" s="2">
         <v>6</v>
@@ -1644,13 +1743,13 @@
         <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
@@ -1661,13 +1760,13 @@
         <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E30" s="2">
         <v>30</v>
@@ -1678,13 +1777,13 @@
         <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="E31" s="2">
         <v>5</v>
@@ -1695,13 +1794,13 @@
         <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="E32" s="2">
         <v>7</v>
@@ -1712,13 +1811,13 @@
         <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -1729,13 +1828,13 @@
         <v>29</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
@@ -1746,13 +1845,13 @@
         <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
@@ -1763,13 +1862,13 @@
         <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
@@ -1780,13 +1879,13 @@
         <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
@@ -1797,13 +1896,13 @@
         <v>33</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2">
         <v>1</v>
